--- a/biology/Botanique/Paspalum_conjugatum/Paspalum_conjugatum.xlsx
+++ b/biology/Botanique/Paspalum_conjugatum/Paspalum_conjugatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paspalum conjugatum, l'herbe créole, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, d'origine obscure mais naturalisées dans toutes les régions tropicales et tempérées chaudes.
 Ce sont des plantes herbacées vivaces, stolonifères, aux tiges dressées pouvant atteindre de 30 à 60 cm de long, et aux inflorescences composées de deux racèmes élancés.
@@ -513,11 +525,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Paspalum conjugatum a été décrite en premier par le botaniste suédois Peter Jonas Bergius à partir d'un spécimen provenant du Suriname[2] et publiée en 1772 dans Acta Helvetica, Physico-Mathematico-Anatomico-Botanico-Medica (Bâle) 7: 129 (-130; t. 8)[3].
-Synonymes
-Selon Catalogue of Life                                   (20 mai 2018)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Paspalum conjugatum a été décrite en premier par le botaniste suédois Peter Jonas Bergius à partir d'un spécimen provenant du Suriname et publiée en 1772 dans Acta Helvetica, Physico-Mathematico-Anatomico-Botanico-Medica (Bâle) 7: 129 (-130; t. 8).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Paspalum_conjugatum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspalum_conjugatum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 mai 2018) :
 Digitaria  conjugata (P.J.Bergius) Schult.
 Panicum conjugatum (P.J.Bergius)  Roxb.
 Paspalum africanum Poir.
@@ -532,8 +581,43 @@
 Paspalum renggeri Steud.
 Paspalum sieberianum Steud.
 Paspalum tenue Gaertn., nom.  superfl.
-Liste des variétés
-Selon Tropicos                                           (20 mai 2018)[5] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Paspalum_conjugatum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspalum_conjugatum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (20 mai 2018) (Attention liste brute contenant possiblement des synonymes) :
 Paspalum conjugatum var. conjugatum
 Paspalum conjugatum var. parviflorum Döll
 Paspalum conjugatum var. pubescens Döll
